--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/3U3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/3U3I3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FA8590-E7A0-4192-A842-7159CD6CED80}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE3CE4D-1190-432A-BB5C-FF6E59083BF0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A3BBE0-62D6-4963-A437-2D8954127C07}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,8 +1422,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1593,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>11</v>
